--- a/medicine/Handicap/Fenêtre_sur_cour/Fenêtre_sur_cour.xlsx
+++ b/medicine/Handicap/Fenêtre_sur_cour/Fenêtre_sur_cour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fen%C3%AAtre_sur_cour</t>
+          <t>Fenêtre_sur_cour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fenêtre sur cour (Rear Window[1]) est un film américain à suspense produit et réalisé par Alfred Hitchcock pour la compagnie Paramount Pictures. Tourné du 23 novembre 1953 au 13 janvier 1954[2] aux studios Paramount à Los Angeles, il est sorti en août 1954 aux États-Unis et le 1er avril 1955 en France. Il a été présenté à la Mostra de Venise de 1954.
-Le film, écrit par John Michael Hayes d'après la nouvelle It Had to Be Murder[3] de Cornell Woolrich sous le pseudonyme de William Irish, met en scène James Stewart dans le rôle d'un photographe qui, à la suite d'un accident, se retrouve en fauteuil roulant et passe son temps à observer ses voisins, dont un qu'il commence à soupçonner de meurtre. Grace Kelly joue le rôle de la petite amie de Stewart, Thelma Ritter celui de son infirmière, Wendell Corey un détective, et Raymond Burr le voisin suspect.
-Le film est considéré par de nombreux spectateurs, critiques et spécialistes du cinéma comme l’un des meilleurs films d'Hitchcock[4]. Il a reçu quatre nominations aux Oscars. Depuis 1997, il figure au National Film Registry, et est cité au 48e rang dans le classement des 100 meilleurs films américains établi en 2007 par l'American Film Institute (édition du 10e anniversaire). Il est 33e dans le classement des meilleurs films de tous les temps sur le site de référence IMDb avec une note moyenne de 8,6⁄10.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fenêtre sur cour (Rear Window) est un film américain à suspense produit et réalisé par Alfred Hitchcock pour la compagnie Paramount Pictures. Tourné du 23 novembre 1953 au 13 janvier 1954 aux studios Paramount à Los Angeles, il est sorti en août 1954 aux États-Unis et le 1er avril 1955 en France. Il a été présenté à la Mostra de Venise de 1954.
+Le film, écrit par John Michael Hayes d'après la nouvelle It Had to Be Murder de Cornell Woolrich sous le pseudonyme de William Irish, met en scène James Stewart dans le rôle d'un photographe qui, à la suite d'un accident, se retrouve en fauteuil roulant et passe son temps à observer ses voisins, dont un qu'il commence à soupçonner de meurtre. Grace Kelly joue le rôle de la petite amie de Stewart, Thelma Ritter celui de son infirmière, Wendell Corey un détective, et Raymond Burr le voisin suspect.
+Le film est considéré par de nombreux spectateurs, critiques et spécialistes du cinéma comme l’un des meilleurs films d'Hitchcock. Il a reçu quatre nominations aux Oscars. Depuis 1997, il figure au National Film Registry, et est cité au 48e rang dans le classement des 100 meilleurs films américains établi en 2007 par l'American Film Institute (édition du 10e anniversaire). Il est 33e dans le classement des meilleurs films de tous les temps sur le site de référence IMDb avec une note moyenne de 8,6⁄10.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fen%C3%AAtre_sur_cour</t>
+          <t>Fenêtre_sur_cour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après s'être cassé une jambe au cours d'un reportage sur un circuit automobile, le photographe de presse L. B. « Jeff » Jefferies se retrouve dans un fauteuil roulant avec une jambe plâtrée. Son état l'oblige à rester dans son appartement new-yorkais de Greenwich Village, dont la fenêtre donne sur une petite cour et plusieurs autres appartements. C'est un mercredi d'été et il fait particulièrement chaud. Jeff passe son temps à observer ses voisins qui, pour s'aérer, laissent leurs propres fenêtres grandes ouvertes. Parmi les locataires d'en face figurent un compositeur, un couple d'âge mûr et son petit chien, une jeune danseuse – « miss Torso » –, qui danse seule le jour et, le soir, invite des hommes de tous âges chez elle, une dame qui s'adonne à la sculpture abstraite, un couple de jeunes mariés, une femme d'une quarantaine d'années qui vit seule – « miss Cœur solitaire » ou « Mademoiselle Célibataire » (« miss Lonelyheart ») –, ainsi qu'un autre couple : un homme d'une carrure assez imposante, et sa femme, malade, semble-t-il, qui reste au lit toute la journée et avec laquelle il semble fréquemment se disputer. Jeff apprendra plus tard qu'il s'agit de Lars Thorwald, un représentant de commerce, et de son épouse Anna, invalide.
 Jeff fréquente une séduisante et riche jeune femme, Lisa Fremont, mais il hésite à aller plus loin dans cette relation, par crainte que celle-ci constitue un frein à sa vie aventureuse. Cependant, Stella, l'infirmière qui vient lui rendre visite chaque matin, l'encourage à sceller cette union.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fen%C3%AAtre_sur_cour</t>
+          <t>Fenêtre_sur_cour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Rear Window
 Titre français : Fenêtre sur cour
@@ -585,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fen%C3%AAtre_sur_cour</t>
+          <t>Fenêtre_sur_cour</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,7 +619,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>James Stewart (VF : Roger Tréville) : Jeff Jefferies
 Grace Kelly (VF : Élina Labourdette) : Lisa Carol Fremont
@@ -631,7 +649,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fen%C3%AAtre_sur_cour</t>
+          <t>Fenêtre_sur_cour</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,11 +667,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fenêtre sur cour fonctionne en grande partie sur le modèle champ-contrechamp. « [Un] homme immobile regarde au dehors. C'est un premier morceau de film. [Un] deuxième morceau fait apparaître ce qu'il voit et [un] troisième montre sa réaction[5]. » La caméra subjective est dès lors utilisée tout au long de l'histoire. Ce n'est qu'à la fin que s'installe la caméra dans la cour, selon un principe hitchcockien préférant garder des images en réserve pour le moment le plus dramatique. L'espace est alors vu sous plusieurs angles, devenant ainsi objectif.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fenêtre sur cour fonctionne en grande partie sur le modèle champ-contrechamp. « [Un] homme immobile regarde au dehors. C'est un premier morceau de film. [Un] deuxième morceau fait apparaître ce qu'il voit et [un] troisième montre sa réaction. » La caméra subjective est dès lors utilisée tout au long de l'histoire. Ce n'est qu'à la fin que s'installe la caméra dans la cour, selon un principe hitchcockien préférant garder des images en réserve pour le moment le plus dramatique. L'espace est alors vu sous plusieurs angles, devenant ainsi objectif.
 Le traditionnel caméo apparaît à la 25e minute. Hitchcock est visible jouant le rôle d'un personnage qui remonte la pendule dans un des appartements faisant face à celui de Jefferies, pendant qu'une personne joue du piano (il s'agit du pianiste et compositeur Rostom Bagdasarian).
-Dans un article autour du film intitulé « Le studio de tournage de l'esprit », Roberto Calasso rapporte une phrase de Hitchcock disant que « Fenêtre sur cour est totalement un processus mental, conduit à travers des moyens visuels » ; et Calasso commente ainsi cette place centrale d'un œil souverain, celui du personnage principal (photographe), de la caméra et du spectateur : « Peut-être - et le titre anglais (Rear Window) l'indique déjà - que c'est une fenêtre qui s'ouvre sur ce qui éternellement se trouve « derrière » le monde : le théâtre de pose de l'esprit[6]. »
+Dans un article autour du film intitulé « Le studio de tournage de l'esprit », Roberto Calasso rapporte une phrase de Hitchcock disant que « Fenêtre sur cour est totalement un processus mental, conduit à travers des moyens visuels » ; et Calasso commente ainsi cette place centrale d'un œil souverain, celui du personnage principal (photographe), de la caméra et du spectateur : « Peut-être - et le titre anglais (Rear Window) l'indique déjà - que c'est une fenêtre qui s'ouvre sur ce qui éternellement se trouve « derrière » le monde : le théâtre de pose de l'esprit. »
 </t>
         </is>
       </c>
@@ -664,7 +684,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fen%C3%AAtre_sur_cour</t>
+          <t>Fenêtre_sur_cour</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -682,7 +702,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix Edgar-Allan-Poe du meilleur scénario en 1955 pour John Michael Hayes</t>
         </is>
@@ -694,7 +716,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fen%C3%AAtre_sur_cour</t>
+          <t>Fenêtre_sur_cour</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -714,11 +736,16 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Influences
-Pour écrire le scénario de Fenêtre sur cour, Hitchcock s'inspire de l’idylle naissante entre Ingrid Bergman et Robert Capa alors que ce dernier est photographe de plateau sur le film Les Enchaînés[7].
+          <t>Influences</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour écrire le scénario de Fenêtre sur cour, Hitchcock s'inspire de l’idylle naissante entre Ingrid Bergman et Robert Capa alors que ce dernier est photographe de plateau sur le film Les Enchaînés.
 Fenêtre sur cour a influencé et inspiré d'autres scénaristes. En effet, plusieurs séries télévisées et films reprennent le scénario de l'œuvre d'Hitchcock de plus ou moins près.
 On peut par exemple citer l'autre adaptation, portant le même titre Fenêtre sur cour, téléfilm ayant reçu trois nominations et une récompense, réalisé en 1998 par Jeff Bleckner avec Christopher Reeve dans le rôle principal.
-L'épisode 5-19 de la série policière Castle, titré The Lives of Others, en  2013, est construit comme un pastiche explicite[8] du film hitchcockien.De même, l'épisode Fenêtre sur rue (épisode 21 de la saison 6) de la série Les Experts : Manhattan est très fortement inspiré par le film.
+L'épisode 5-19 de la série policière Castle, titré The Lives of Others, en  2013, est construit comme un pastiche explicite du film hitchcockien.De même, l'épisode Fenêtre sur rue (épisode 21 de la saison 6) de la série Les Experts : Manhattan est très fortement inspiré par le film.
 Il convient aussi d'ajouter le film Paranoïak, avec le jeune Shia LaBeouf, histoire d'un jeune homme placé sous contrôle judiciaire, témoin du meurtre de sa voisine.
 Mais la liste est encore longue, le même scénario (ou des allusions) est repris dans un épisode des Simpson, de Persons of Interest, un épisode de la série 70's Show reprend plusieurs scènes de films d'Hitchcock (Les Oiseaux, Fenêtre sur cour, La Mort aux trousses…). Dean Winchester, joué par Jensen Ackles, fait allusion au film qu'il croit revivre, Dean a en effet la jambe plâtrée dans l'épisode 3 de la saison 7 de Supernatural. Il dit se faire un remake du film. L'épisode 7 de la saison 4 de la série Raising Hope reprend la trame du film. De plus, Virginia (Martha Plimpton) y adopte le style vestimentaire et les poses de Grace Kelly. Cet épisode fait également référence aux Oiseaux et à Psychose, et utilise le procédé du travelling contrarié, comme dans Sueurs froides.
 Le chanteur Renan Luce fait référence au film dans le clip de sa chanson Les Voisines de 2006 : on le voit la jambe cassée, assis dans un fauteuil, espionnant ses voisines avec des jumelles.
@@ -732,7 +759,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fen%C3%AAtre_sur_cour</t>
+          <t>Fenêtre_sur_cour</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -750,7 +777,9 @@
           <t>Musique du film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la soirée chez le pianiste on entend les fêtards chanter Mona Lisa en chœur. 
 </t>
